--- a/data/login_records.xlsx
+++ b/data/login_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,22 +517,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>2024-04-27 00:08:16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>摄像头</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2067165113.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>登录成功</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-04-27 00:08:16</t>
+          <t>2024-04-27 00:08:17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>登录成功</t>
+          <t>退出登录</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-04-27 00:08:17</t>
+          <t>2024-05-09 14:41:43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -586,10 +586,496 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-05-09 14:42:27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>退出登录</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-05-10 15:02:20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-05-10 15:32:03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-05-10 15:46:47</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-05-10 15:47:42</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-05-10 15:51:10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:20:18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:04:56</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-05-11 19:19:13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-05-11 19:22:56</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-05-11 19:23:16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-05-11 19:29:16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-05-11 20:14:04</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-05-11 21:21:59</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-05-11 21:22:14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-05-16 10:18:09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-05-16 11:01:05</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-05-24 20:50:13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2067165113.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/data/login_records.xlsx
+++ b/data/login_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1081,116 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-06-01 21:11:21</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-06-02 18:23:17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:14:22</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:42:54</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:01:12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
